--- a/data/trans_orig/Q02D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R-Edad-trans_orig.xlsx
@@ -663,7 +663,7 @@
         <v>6.470329597205939</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.104653649873821</v>
+        <v>5.10465364987382</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>6.139120964486303</v>
@@ -681,7 +681,7 @@
         <v>10.18379966382237</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.306447317955723</v>
+        <v>6.306447317955722</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.982353051692066</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.23320364246351</v>
+        <v>4.298511360339147</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.201340664248189</v>
+        <v>4.252406893631484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.644758343541262</v>
+        <v>4.756174457208013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.082999139558776</v>
+        <v>2.116068488864299</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.140600296220722</v>
+        <v>6.072967439608503</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.385491601286469</v>
+        <v>6.407088581702702</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.902546949803014</v>
+        <v>8.883022852344975</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.607025483273891</v>
+        <v>3.837587672594609</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.657052175354377</v>
+        <v>5.774595224331706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.93065920774306</v>
+        <v>5.88288989104973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.770558961840286</v>
+        <v>7.871265585533497</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.64031543478825</v>
+        <v>3.696215087817468</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.934517715981631</v>
+        <v>9.668422032716027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.241818625439714</v>
+        <v>6.274683620817014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.071869256816562</v>
+        <v>8.265816897440551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.71149102837124</v>
+        <v>11.34657895390104</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.224389344151728</v>
+        <v>9.085492680406535</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.951566881694095</v>
+        <v>8.046118987626111</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.58341611683379</v>
+        <v>11.65526471152878</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.14871643055389</v>
+        <v>10.71737738946674</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.508303290598663</v>
+        <v>8.408485403103171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.28864976688685</v>
+        <v>7.221591328438937</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.18185092391454</v>
+        <v>10.22438196155662</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.631176819767987</v>
+        <v>8.472196761557848</v>
       </c>
     </row>
     <row r="7">
@@ -802,34 +802,34 @@
         <v>5.642279845311422</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.894863230607856</v>
+        <v>7.894863230607855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.23317937279406</v>
+        <v>9.233179372794062</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.626780871254069</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.011162657932086</v>
+        <v>8.011162657932084</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>9.887575994273542</v>
+        <v>9.88757599427354</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10.00446888347736</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>6.515037619411512</v>
+        <v>6.515037619411511</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>7.175036039757413</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9.152804508419289</v>
+        <v>9.152804508419287</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>9.783803017331341</v>
+        <v>9.783803017331337</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.893203113936181</v>
+        <v>3.880042888248163</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.180704829587336</v>
+        <v>5.188382471567822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.986078860165603</v>
+        <v>6.99830061192336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.233598196619937</v>
+        <v>7.12613876803985</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.006420067752941</v>
+        <v>6.863764907482425</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.638572732898856</v>
+        <v>7.602074506862779</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.1568508809177</v>
+        <v>9.163102977630812</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.851016874920028</v>
+        <v>8.87281378663782</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.042142763102766</v>
+        <v>6.031570288489458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.846978520590282</v>
+        <v>6.847840875103047</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.59221437590343</v>
+        <v>8.576974158070508</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>8.773089883373464</v>
+        <v>8.83123723393696</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.325007143434831</v>
+        <v>5.371833570306497</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.160589568689891</v>
+        <v>6.226843877023574</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.929159747466109</v>
+        <v>8.856815228302359</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.24901524098072</v>
+        <v>12.5781309963097</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.387550054661251</v>
+        <v>8.376863018391825</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.416069370926438</v>
+        <v>8.404028048661019</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>10.64395598774943</v>
+        <v>10.68187118621632</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.27143498577191</v>
+        <v>11.31455922730503</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.098614642118237</v>
+        <v>7.101799518566144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.506348333947333</v>
+        <v>7.525028934413005</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.734019099312803</v>
+        <v>9.817643360545558</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>11.20249711951122</v>
+        <v>11.11085684955083</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.546700837297462</v>
+        <v>3.546700837297463</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>4.820509277240465</v>
@@ -953,13 +953,13 @@
         <v>8.807281818524842</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.900527225826183</v>
+        <v>7.900527225826181</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.693727375766894</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5.893755798930303</v>
+        <v>5.893755798930302</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>8.160784613693259</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.167160137326937</v>
+        <v>3.193406797615036</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.493330759869669</v>
+        <v>4.527224169592239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.716851456774531</v>
+        <v>6.758184439343628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.341535906438054</v>
+        <v>5.376033815808793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.989521920795762</v>
+        <v>4.978066772505755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.369828040667647</v>
+        <v>6.36710170859738</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.2589216391044</v>
+        <v>8.191759849093213</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.18953723730585</v>
+        <v>7.233035908044959</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.371253768405986</v>
+        <v>4.33116065876718</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.640299117677621</v>
+        <v>5.6675706479098</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.734011959279125</v>
+        <v>7.717157614632008</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.602931049913136</v>
+        <v>6.656432594087286</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.039181458630015</v>
+        <v>4.005211636984371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.178074096357076</v>
+        <v>5.188658300304728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.009919459038928</v>
+        <v>7.989426699173712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.275602733459912</v>
+        <v>7.275640968535328</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.051722702156849</v>
+        <v>6.030026906170637</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.994397056190852</v>
+        <v>7.029043759580651</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.455172927863281</v>
+        <v>9.427916356982802</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.753179972090372</v>
+        <v>8.803315446327886</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.069563002711528</v>
+        <v>5.105145094405419</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.11222109624285</v>
+        <v>6.151301686074468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8.626337099754553</v>
+        <v>8.597273920918772</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.833613497323984</v>
+        <v>7.854818618427509</v>
       </c>
     </row>
     <row r="13">
@@ -1071,19 +1071,19 @@
         <v>2.425598622628116</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.94690774048177</v>
+        <v>3.946907740481769</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5.841220424431604</v>
+        <v>5.841220424431603</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.801528956632182</v>
+        <v>4.801528956632181</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>4.921532587743727</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>5.361464703329468</v>
+        <v>5.361464703329467</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>7.633750351020606</v>
@@ -1101,7 +1101,7 @@
         <v>6.819050538765742</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>5.683940347730901</v>
+        <v>5.683940347730902</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.994416679725197</v>
+        <v>1.997401632080213</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.518883771381203</v>
+        <v>3.522734895965443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.081046867936784</v>
+        <v>5.056022802070237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.955612519530523</v>
+        <v>4.007122387581838</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.09336137967713</v>
+        <v>4.13501696322572</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.89557427883765</v>
+        <v>4.931718043181951</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.879955020372575</v>
+        <v>6.859051556688638</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>5.547298626595733</v>
+        <v>5.494724208041475</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.28843142859024</v>
+        <v>3.244282166625038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4.38617373064359</v>
+        <v>4.358710004427246</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.284237498778839</v>
+        <v>6.235966711507748</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5.040650544073071</v>
+        <v>5.095336837387888</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.020540586911753</v>
+        <v>3.052856707089329</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.430419711893525</v>
+        <v>4.39892508388213</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.851398740822725</v>
+        <v>6.821489093193438</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.302191316025096</v>
+        <v>6.435608168803902</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.826306307319474</v>
+        <v>5.857660359331819</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.833866108637647</v>
+        <v>5.880853252787402</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>8.538379901231888</v>
+        <v>8.62527134570421</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.402007234486002</v>
+        <v>7.532635573266659</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.356805750278855</v>
+        <v>4.212971062476045</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5.049250278055799</v>
+        <v>5.069466377375627</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.456586447643948</v>
+        <v>7.556085504073639</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6.576061283028653</v>
+        <v>6.569109738938389</v>
       </c>
     </row>
     <row r="16">
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>5.265701174123538</v>
+        <v>5.265701174123537</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.745468919451604</v>
+        <v>5.745468919451603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.479715076098721</v>
+        <v>4.479715076098722</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.130560050795541</v>
@@ -1237,7 +1237,7 @@
         <v>7.318401350409587</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>5.287849947118361</v>
+        <v>5.287849947118359</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.096090309518188</v>
+        <v>3.225958786028929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.681930326549138</v>
+        <v>4.526823256353073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.489601436146065</v>
+        <v>3.513939454087493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.474224603155632</v>
+        <v>2.47511491877961</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.086234395995898</v>
+        <v>4.147924379607813</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.991436376495552</v>
+        <v>4.906344953200106</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.45273674859377</v>
+        <v>7.527573792179206</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.64407561473798</v>
+        <v>4.589635951209538</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.132035689386759</v>
+        <v>4.153133526713772</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.08750600607017</v>
+        <v>5.161863525742465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.066268015901946</v>
+        <v>6.066627227929748</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.976491684275963</v>
+        <v>4.017719736348538</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.724067783959153</v>
+        <v>9.253951036032747</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.976278134921023</v>
+        <v>6.990744447128156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.901887399243658</v>
+        <v>5.977820206852405</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.522457783625677</v>
+        <v>6.495773095851056</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.66575437091786</v>
+        <v>6.888550559096615</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.704447943906889</v>
+        <v>6.662583597280683</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.5316684460488</v>
+        <v>11.35014547414972</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.511068139874268</v>
+        <v>8.281280756709187</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.505322344772598</v>
+        <v>6.500175292560584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.457692373445531</v>
+        <v>6.502502486402256</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8.814951723468958</v>
+        <v>8.963256054980571</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.776288261540167</v>
+        <v>6.97049222027969</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>6.617788767581557</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6.823376000738616</v>
+        <v>6.823376000738617</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>3.942976242463911</v>
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.332673853259706</v>
+        <v>4.273163458562946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.54188410703278</v>
+        <v>4.629047976780436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.644165739266563</v>
+        <v>4.552321427926644</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>4.623164262389404</v>
+        <v>4.624356843149955</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.49449269775851</v>
+        <v>5.471739794796722</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4.743955183662838</v>
+        <v>4.77789969866001</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.283451892346799</v>
+        <v>3.252550911668851</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>4.79642940047896</v>
+        <v>4.761050872448051</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5.637043126449043</v>
+        <v>5.583727876182552</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.204338861726394</v>
+        <v>5.14849834675061</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>3.330049238544175</v>
+        <v>3.285217210306562</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.4286494188921</v>
+        <v>7.500348035736983</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.508841316973809</v>
+        <v>9.568988306233525</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.30742984410145</v>
+        <v>11.24396102353438</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>8.442204534365398</v>
+        <v>8.258081075881382</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.828491363199198</v>
+        <v>7.823229831504466</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.596320611944179</v>
+        <v>9.792595772967319</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>4.823889394645619</v>
+        <v>4.812551433535964</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.923975945014517</v>
+        <v>7.855514627330717</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.803798551883594</v>
+        <v>7.760778379726785</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9.243145280346621</v>
+        <v>8.986305821875645</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>4.723739433204584</v>
+        <v>4.671114580123538</v>
       </c>
     </row>
     <row r="22">
@@ -1484,13 +1484,13 @@
         <v>1.285714285714286</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>7.43360237020499</v>
+        <v>7.433602370204989</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>6.6906749998624</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>8.545324173452221</v>
+        <v>8.545324173452219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5.55183924219916</v>
@@ -1499,10 +1499,10 @@
         <v>8.006541810589036</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6.455445974013242</v>
+        <v>6.455445974013243</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7.757877246592757</v>
+        <v>7.757877246592756</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>4.316485501998494</v>
@@ -1516,38 +1516,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.770732558966813</v>
+        <v>5.635693647070651</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.022786658719776</v>
+        <v>4.081483744943231</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.673669589756464</v>
+        <v>2.612200924297408</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>5.031126131165254</v>
+        <v>4.967111907570557</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.358661406046005</v>
+        <v>5.305326968895132</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.291474066390068</v>
+        <v>6.29143088461213</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3.47818488453985</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.875402192078342</v>
+        <v>5.855230687544933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.190401956569446</v>
+        <v>5.323158361058145</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5.867622871086637</v>
+        <v>5.794739588330729</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.913824645462406</v>
+        <v>2.178453628801556</v>
       </c>
     </row>
     <row r="24">
@@ -1558,38 +1558,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.96832400411124</v>
+        <v>14.16107159757913</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.068514665231449</v>
+        <v>7.929970521496632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.804361151616991</v>
+        <v>7.889909857802898</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>10.9538974092889</v>
+        <v>10.62477880920275</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.187732770505555</v>
+        <v>8.406551166753317</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.87906777782394</v>
+        <v>11.70729638930584</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8.288302967050557</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.57104897916899</v>
+        <v>10.8348443720031</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.673931026765728</v>
+        <v>7.772171949563019</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10.48854794165261</v>
+        <v>10.4486259109957</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>6.946067884681357</v>
+        <v>6.888106639155015</v>
       </c>
     </row>
     <row r="25">
@@ -1622,16 +1622,16 @@
         <v>6.757266584126868</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>8.961910241226553</v>
+        <v>8.961910241226555</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>7.930097976943477</v>
+        <v>7.93009797694348</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>5.344440530702362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6.034071751229832</v>
+        <v>6.034071751229833</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>8.129569667314652</v>
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.644581461963075</v>
+        <v>3.650941753542623</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.692205972485391</v>
+        <v>4.682991712941492</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.448770960987409</v>
+        <v>6.499607612830713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.497634883101365</v>
+        <v>5.434826932703897</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>5.864502835868341</v>
+        <v>5.878114605525252</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.533274304152508</v>
+        <v>6.540786250274529</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>8.573258021119511</v>
+        <v>8.605359241962518</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>7.347813429173589</v>
+        <v>7.380504150069722</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>5.079761788589837</v>
+        <v>5.087358914033572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5.870063927922038</v>
+        <v>5.875252035147895</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7.874085367731793</v>
+        <v>7.833161470058566</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>6.739895447038279</v>
+        <v>6.798106641846479</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.363671523177787</v>
+        <v>4.322906780933084</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.153444691603068</v>
+        <v>5.163339857580088</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.310188404727816</v>
+        <v>7.365005242185354</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.015123261330483</v>
+        <v>7.015620344490151</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>6.554524582296491</v>
+        <v>6.560538917187563</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>6.981092088611613</v>
+        <v>6.97737893968058</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>9.363827228563752</v>
+        <v>9.361121645273121</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>8.523923552788748</v>
+        <v>8.587694828535996</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>5.595733349135844</v>
+        <v>5.61218116304787</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6.203524814325197</v>
+        <v>6.190302794051557</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8.455177643265509</v>
+        <v>8.444122861623887</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>7.709904503175761</v>
+        <v>7.776249267272196</v>
       </c>
     </row>
     <row r="28">
